--- a/wa__kyz_saikal__tahirova__ws_25_26/modellantworten/modellantworten_tabelle.xlsx
+++ b/wa__kyz_saikal__tahirova__ws_25_26/modellantworten/modellantworten_tabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Kyz Saikal\whz\wa\meine_arbeit\wa__kyz_saikal__tahirova__ws_25_26\modellantworten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9318D8A-8D7A-4377-B4EE-5E1D7046EC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE43CCC-3EFC-421C-A337-F22685378E9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fehlehrhaft Beispielen" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="108">
   <si>
     <t>False positive?</t>
   </si>
@@ -278,17 +278,91 @@
   </si>
   <si>
     <t>Analysieren Sie die Bezeichner im folgenden Java-Code und identifizieren Sie mögliche Benennungs- oder Struktur-Anti-Muster. [CODE]</t>
+  </si>
+  <si>
+    <t>Gute Analyse, aber keine Anti-Muster-Taxonomie.</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Alibaba Qwen3-Coder</t>
+  </si>
+  <si>
+    <t>Guter Vergleich mit Beispielen, aber keine Anti-Muster-Taxonomie.</t>
+  </si>
+  <si>
+    <t>Analyse ist tief, aber kein Anti-Muster benannt.</t>
+  </si>
+  <si>
+    <t>Erkennt irreführenden Namen `calculateTotal()`, aber kein Anti-Muster.</t>
+  </si>
+  <si>
+    <t>Keine Anti-Muster-Nennung trotz klarer Situation.</t>
+  </si>
+  <si>
+    <t>Beschreibt Inkonsistenz, benennt aber kein Anti-Muster.</t>
+  </si>
+  <si>
+    <t>Guter Vergleich mit Beispielen, fehlt Anti-Muster-Bezug.</t>
+  </si>
+  <si>
+    <t>Keine Zuordnung zu D–F, trotz klarer Inkonsistenz.</t>
+  </si>
+  <si>
+    <t>Gute Analyse der JavaBeans-Konvention, aber kein Anti-Muster genannt.</t>
+  </si>
+  <si>
+    <t>Klare Kritik, aber keine Anti-Muster-Taxonomie.</t>
+  </si>
+  <si>
+    <t>Sehr gute Analyse der Inkonsistenz, aber kein Anti-Muster benannt.</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Klare Identifikation von Anti-Muster B.</t>
+  </si>
+  <si>
+    <t>Kritisiert getVersion() als void, aber kein Anti-Muster benannt.</t>
+  </si>
+  <si>
+    <t>Kritisiert checkFormat() als ungenau, nennt aber kein Anti-Muster (A/B).</t>
+  </si>
+  <si>
+    <t>Explizite Zuordnung zu Anti-Muster B.</t>
+  </si>
+  <si>
+    <t>Explizite Identifikation von B und D–F.</t>
+  </si>
+  <si>
+    <t>Erkennt Tippfehler und semantische Unklarheit bei center, aber kein Anti-Muster.</t>
+  </si>
+  <si>
+    <t>Kritisiert isEnabled als Feld, aber kein Anti-Muster benannt.</t>
+  </si>
+  <si>
+    <t>Explizite Zuordnung zu A, B, C.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -316,6 +390,12 @@
       <name val="Leelawadee UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -338,13 +418,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -354,30 +433,294 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -388,6 +731,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0E46616-D88C-41EE-B723-A5C461787B5A}" name="Таблица1" displayName="Таблица1" ref="A1:K53" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowCellStyle="Финансовый">
+  <autoFilter ref="A1:K53" xr:uid="{3F3AB323-72A2-4575-8BD5-823A3EBB9019}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{39B7A7FF-7571-4B71-B311-A09C62372D29}" name="Beispiel" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{0C4F5B4A-126A-43A4-A6FA-51F06B5441CC}" name="Modell" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{33133137-1A3D-4567-B225-0CB14943CDAA}" name="Hinweis" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{43181A34-41B0-42CF-8C14-0293B52AA3DE}" name="Anti-Muster erkannt?" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{2280A2D1-F7DD-40D2-8E53-85D2AE7D4BE9}" name="Korrekturqualität " dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{5EBAB1FC-D5BB-4BD6-84E1-430FDB1940FB}" name="Konventionen" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{CDD6ECAF-4665-45AB-9F8C-F9A41E5E224B}" name="Klarheit" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{B4896D06-45F0-4BE1-99DF-1304338A9229}" name="Konsistenz" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{3660ACAE-9D21-4C9E-B8DA-840C71FDBAE6}" name="False positive?" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{65849C4B-4509-4628-8346-6C2657151ABC}" name="Gesamt" dataDxfId="1" dataCellStyle="Финансовый">
+      <calculatedColumnFormula>(E2+F2+G2+H2)/4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{070FD717-754A-476D-BF11-54670C3C0B2C}" name="Kommentare" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,1220 +1077,1941 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.796875" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="23.296875" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="30.09765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5">
         <f>(E2+F2+G2+H2)/4</f>
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5">
         <f>(E3+F3+G3+H3)/4</f>
         <v>4</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="7">
-        <f t="shared" ref="J4:J32" si="0">(E4+F4+G4+H4)/4</f>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J53" si="0">(E4+F4+G4+H4)/4</f>
         <v>4.75</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5">
         <f>(E11+F11+G11+H11)/4</f>
         <v>4.75</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="D12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K13" s="8" t="s">
+      <c r="E13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="D14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K15" s="8" t="s">
+      <c r="D15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K16" s="8" t="s">
+      <c r="D16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K17" s="8" t="s">
+      <c r="E17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="D18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="D19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="D20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K21" s="8" t="s">
+      <c r="E21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="D22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="D23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="D24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K25" s="8" t="s">
+      <c r="E25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="7">
+      <c r="D26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="7">
+      <c r="D27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="5">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="7">
+      <c r="D28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K29" s="8" t="s">
+      <c r="E29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="7">
+      <c r="D30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="5">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="7">
+      <c r="D31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="5">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="D32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="7">
-        <f>(E33+F33+G33+H33)/4</f>
-        <v>5</v>
-      </c>
-      <c r="K33" s="8" t="s">
+      <c r="E33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="34" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A34" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A35" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A36" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A37" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A38" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A39" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A40" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A41" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A42" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A43" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A44" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A45" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A46" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A47" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A48" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A49" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A50" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A51" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A52" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A53" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A33:I33 A2:I2 K2 I1 A3:I3 K3 A5:I10 K4:K10 A11:I15 K11:K15 A16:I32 K16:K32 K33 A4:C4 E4:I4" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1933,7 +3019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15063D9-8BD6-4A0A-8695-83C1D5356191}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/wa__kyz_saikal__tahirova__ws_25_26/modellantworten/modellantworten_tabelle.xlsx
+++ b/wa__kyz_saikal__tahirova__ws_25_26/modellantworten/modellantworten_tabelle.xlsx
@@ -8,23 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Kyz Saikal\whz\wa\meine_arbeit\wa__kyz_saikal__tahirova__ws_25_26\modellantworten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BE2919-9EA3-4C1C-BA63-6E2C52A4E850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92E6B89-C61F-4C20-BEC8-44F3EF6935F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{66559A3D-BDC4-439E-9EC6-4FED79841905}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66559A3D-BDC4-439E-9EC6-4FED79841905}"/>
   </bookViews>
   <sheets>
     <sheet name="Richtige Beispiele" sheetId="1" r:id="rId1"/>
     <sheet name="Fehlerhafte Beispiele" sheetId="2" r:id="rId2"/>
-    <sheet name="Versionshinweise" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Fehlerhafte Beispiele'!$A$2:$J$53</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Fehlerhafte Beispiele'!$K$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Fehlerhafte Beispiele'!$K$2:$K$53</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Fehlerhafte Beispiele'!$A$2:$J$53</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Fehlerhafte Beispiele'!$K$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Fehlerhafte Beispiele'!$K$2:$K$53</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="97">
   <si>
     <t>A1</t>
   </si>
@@ -332,72 +323,6 @@
   </si>
   <si>
     <t xml:space="preserve">E2 </t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>Analysieren Sie die Bezeichner im folgenden Java-Code und identifizieren Sie mögliche Benennungs- oder Struktur-Anti-Muster. [CODE]</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>Beispiele für gute Bezeichner:</t>
-  </si>
-  <si>
-    <t>- Klassen: CustomerAccount, PaymentProcessor</t>
-  </si>
-  <si>
-    <t>- Methoden: calculateTotal(), validateInput()</t>
-  </si>
-  <si>
-    <t>- Attribute: userName, itemCount</t>
-  </si>
-  <si>
-    <t>Analysieren Sie nun folgenden Code:</t>
-  </si>
-  <si>
-    <t>[CODE]</t>
-  </si>
-  <si>
-    <t>v3</t>
-  </si>
-  <si>
-    <t>Analysieren Sie den Code unter Berücksichtigung von:</t>
-  </si>
-  <si>
-    <t>1) Java-Konventionen (Oracle)</t>
-  </si>
-  <si>
-    <t>2) Konsistenz zwischen Name, Typ und Verhalten</t>
-  </si>
-  <si>
-    <t>3) Verständlichkeit und Bedeutung</t>
-  </si>
-  <si>
-    <t>Geben Sie Hinweise für Entwickler.</t>
-  </si>
-  <si>
-    <t>v4</t>
-  </si>
-  <si>
-    <t>Linguistische Anti-Muster:</t>
-  </si>
-  <si>
-    <t>A: Methode tut mehr als Name sagt</t>
-  </si>
-  <si>
-    <t>B: Name verspricht mehr als implementiert</t>
-  </si>
-  <si>
-    <t>C: Name und Verhalten sind gegensätzlich</t>
-  </si>
-  <si>
-    <t>D-F: Inkonsistenzen bei Attributnamen</t>
-  </si>
-  <si>
-    <t>Analysieren Sie nun den Code:</t>
   </si>
 </sst>
 </file>
@@ -407,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,14 +358,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="3"/>
-      <name val="Leelawadee UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Leelawadee UI"/>
       <family val="2"/>
@@ -458,6 +375,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Leelawadee UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Leelawadee UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -657,23 +587,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,15 +616,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -725,16 +643,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,9 +658,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,19 +679,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -791,7 +703,26 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,7 +730,33 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -818,7 +775,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -826,11 +783,7 @@
         <top style="thin">
           <color theme="4"/>
         </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -848,26 +801,19 @@
         <color theme="3"/>
         <name val="Leelawadee UI"/>
         <family val="2"/>
-        <charset val="204"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
         </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -888,203 +834,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Leelawadee UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Leelawadee UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Leelawadee UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Leelawadee UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Leelawadee UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -1093,72 +843,6 @@
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <name val="Leelawadee UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Leelawadee UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1180,7 +864,7 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -1189,8 +873,6 @@
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1212,7 +894,7 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -1221,8 +903,6 @@
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1244,7 +924,7 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -1253,8 +933,6 @@
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1276,7 +954,7 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -1285,8 +963,6 @@
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1307,7 +983,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -1316,8 +992,6 @@
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1338,7 +1012,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -1347,8 +1021,6 @@
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1369,7 +1041,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -1378,8 +1050,6 @@
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1400,15 +1070,329 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="4"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1441,44 +1425,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95FC67E7-E144-422E-8B05-22EA048C1892}" name="Таблица2" displayName="Таблица2" ref="A1:K13" totalsRowShown="0" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95FC67E7-E144-422E-8B05-22EA048C1892}" name="Таблица2" displayName="Таблица2" ref="A1:K13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="27">
   <autoFilter ref="A1:K13" xr:uid="{D29E348E-8A9D-4055-8371-39C34F608E0F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{52AA3614-884A-4F18-88C5-D112B0ECA656}" name="Beispiel" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{38971111-62B9-4F30-9652-52A9ABE83775}" name="Modell" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{B13462D2-4FFE-4404-9896-B73C6A3D0872}" name="Hinweis" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{FFE0FC46-69FD-407B-8312-0E286FB64F1F}" name="Anti-Muster erkannt?" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{B0764CD1-8F07-4A92-825A-A974A3D98391}" name="Korrekturqualität " dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{835512A1-6A1D-4F5C-9BD0-E54102F2C11E}" name="Konventionen" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{5DBF579F-1E4A-4185-8EFE-B97866365A8E}" name="Klarheit" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{EED7691D-CC91-4045-8937-A57FCAD158D8}" name="Konsistenz" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{F0E3ACB3-2A1F-4694-80E9-484FB6E9C5C2}" name="False positive?" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{DDA516DE-32D1-4A3D-89E8-DA4950195D46}" name="Gesamt" dataDxfId="10" dataCellStyle="Финансовый">
+    <tableColumn id="1" xr3:uid="{52AA3614-884A-4F18-88C5-D112B0ECA656}" name="Beispiel" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{38971111-62B9-4F30-9652-52A9ABE83775}" name="Modell" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{B13462D2-4FFE-4404-9896-B73C6A3D0872}" name="Hinweis" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FFE0FC46-69FD-407B-8312-0E286FB64F1F}" name="Anti-Muster erkannt?" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{B0764CD1-8F07-4A92-825A-A974A3D98391}" name="Korrekturqualität " dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{835512A1-6A1D-4F5C-9BD0-E54102F2C11E}" name="Konventionen" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{5DBF579F-1E4A-4185-8EFE-B97866365A8E}" name="Klarheit" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{EED7691D-CC91-4045-8937-A57FCAD158D8}" name="Konsistenz" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{F0E3ACB3-2A1F-4694-80E9-484FB6E9C5C2}" name="False positive?" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{DDA516DE-32D1-4A3D-89E8-DA4950195D46}" name="Gesamt" dataDxfId="3" dataCellStyle="Финансовый">
       <calculatedColumnFormula>(E2+F2+G2+H2)/4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5BF356E3-E81D-46A8-8BC4-F60C6718232A}" name="Kommentare" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{5BF356E3-E81D-46A8-8BC4-F60C6718232A}" name="Kommentare" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4E9D879-192A-40A8-A9A5-A92F19444A60}" name="Таблица3" displayName="Таблица3" ref="A1:K53" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4E9D879-192A-40A8-A9A5-A92F19444A60}" name="Таблица3" displayName="Таблица3" ref="A1:K53" totalsRowShown="0" dataDxfId="13" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="A1:K53" xr:uid="{8F1CA606-2082-4062-B3E3-297399F151A8}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3C333CF7-2CB5-4706-8E0F-1B48378489BB}" name="Beispiel" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{2F7407AF-716E-4EE7-B3A8-9ECCDBD8797E}" name="Modell" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{42EAFF4C-55DE-491D-8732-B687AD192F67}" name="Hinweis" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4E4AF691-4AF5-4069-81DD-66D8EC05CDC7}" name="Anti-Muster erkannt?" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{BA4D9D0D-9589-450C-BE4F-4BECB20FE42B}" name="Korrekturqualität "/>
-    <tableColumn id="6" xr3:uid="{9827F686-ACD5-4C03-8495-9B6C6DC73DD6}" name="Konventionen"/>
-    <tableColumn id="7" xr3:uid="{991E423E-673F-4485-AD3A-4E04416F7840}" name="Klarheit"/>
-    <tableColumn id="8" xr3:uid="{12C6FA36-BC62-4921-A586-40708E1FD79D}" name="Konsistenz"/>
-    <tableColumn id="9" xr3:uid="{CFD3E60B-D63C-46AC-BE15-0689D88BF60F}" name="False positive?" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{FC59FE46-5DF8-431F-B57A-8245952C451E}" name="Gesamt" dataDxfId="1" dataCellStyle="Финансовый">
+    <tableColumn id="1" xr3:uid="{3C333CF7-2CB5-4706-8E0F-1B48378489BB}" name="Beispiel" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{2F7407AF-716E-4EE7-B3A8-9ECCDBD8797E}" name="Modell" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{42EAFF4C-55DE-491D-8732-B687AD192F67}" name="Hinweis" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{4E4AF691-4AF5-4069-81DD-66D8EC05CDC7}" name="Anti-Muster erkannt?" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{BA4D9D0D-9589-450C-BE4F-4BECB20FE42B}" name="Korrekturqualität " dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{9827F686-ACD5-4C03-8495-9B6C6DC73DD6}" name="Konventionen" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{991E423E-673F-4485-AD3A-4E04416F7840}" name="Klarheit" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{12C6FA36-BC62-4921-A586-40708E1FD79D}" name="Konsistenz" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{CFD3E60B-D63C-46AC-BE15-0689D88BF60F}" name="False positive?" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{FC59FE46-5DF8-431F-B57A-8245952C451E}" name="Gesamt" dataDxfId="15" dataCellStyle="Финансовый">
       <calculatedColumnFormula>(E2+F2+G2+H2)/4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E9E13314-43A4-4F30-ABD9-E75EF4676018}" name="Kommentare" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{E9E13314-43A4-4F30-ABD9-E75EF4676018}" name="Kommentare" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1783,494 +1767,495 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7798F2C1-3909-4B82-B735-33750B4301C6}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="56" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="29" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="44" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="44" customWidth="1"/>
+    <col min="9" max="9" width="18" style="44" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="44" customWidth="1"/>
+    <col min="11" max="11" width="45.5546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="16">
-        <v>5</v>
-      </c>
-      <c r="F2" s="16">
-        <v>5</v>
-      </c>
-      <c r="G2" s="16">
-        <v>5</v>
-      </c>
-      <c r="H2" s="16">
-        <v>5</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="14">
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12">
+        <v>5</v>
+      </c>
+      <c r="H2" s="12">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="45">
         <f t="shared" ref="J2:J13" si="0">(E2+F2+G2+H2)/4</f>
         <v>5</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="18">
-        <v>5</v>
-      </c>
-      <c r="F3" s="18">
-        <v>5</v>
-      </c>
-      <c r="G3" s="18">
-        <v>5</v>
-      </c>
-      <c r="H3" s="18">
-        <v>5</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K3" s="20" t="s">
+      <c r="D3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14">
+        <v>5</v>
+      </c>
+      <c r="G3" s="14">
+        <v>5</v>
+      </c>
+      <c r="H3" s="14">
+        <v>5</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="46">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="16">
-        <v>5</v>
-      </c>
-      <c r="F4" s="16">
-        <v>5</v>
-      </c>
-      <c r="G4" s="16">
-        <v>5</v>
-      </c>
-      <c r="H4" s="16">
-        <v>5</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K4" s="21" t="s">
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12">
+        <v>5</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="18">
-        <v>5</v>
-      </c>
-      <c r="F5" s="18">
-        <v>5</v>
-      </c>
-      <c r="G5" s="18">
-        <v>5</v>
-      </c>
-      <c r="H5" s="18">
-        <v>5</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K5" s="20" t="s">
+      <c r="D5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>5</v>
+      </c>
+      <c r="F5" s="14">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14">
+        <v>5</v>
+      </c>
+      <c r="H5" s="14">
+        <v>5</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="46">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="76.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:11" ht="76.8" x14ac:dyDescent="0.45">
+      <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16">
-        <v>5</v>
-      </c>
-      <c r="G6" s="16">
-        <v>4</v>
-      </c>
-      <c r="H6" s="16">
-        <v>4</v>
-      </c>
-      <c r="I6" s="15" t="s">
+      <c r="D6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="45">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="76.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:11" ht="76.8" x14ac:dyDescent="0.45">
+      <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="18">
-        <v>5</v>
-      </c>
-      <c r="F7" s="18">
-        <v>5</v>
-      </c>
-      <c r="G7" s="18">
-        <v>4</v>
-      </c>
-      <c r="H7" s="18">
-        <v>4</v>
-      </c>
-      <c r="I7" s="17" t="s">
+      <c r="D7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>5</v>
+      </c>
+      <c r="F7" s="14">
+        <v>5</v>
+      </c>
+      <c r="G7" s="14">
+        <v>4</v>
+      </c>
+      <c r="H7" s="14">
+        <v>4</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="46">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="76.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:11" ht="76.8" x14ac:dyDescent="0.45">
+      <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="16">
-        <v>5</v>
-      </c>
-      <c r="F8" s="16">
-        <v>5</v>
-      </c>
-      <c r="G8" s="16">
-        <v>4</v>
-      </c>
-      <c r="H8" s="16">
-        <v>4</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="D8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12">
+        <v>4</v>
+      </c>
+      <c r="H8" s="12">
+        <v>4</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="45">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="96" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:11" ht="96" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>4</v>
-      </c>
-      <c r="H9" s="18">
-        <v>4</v>
-      </c>
-      <c r="I9" s="17" t="s">
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14">
+        <v>4</v>
+      </c>
+      <c r="H9" s="14">
+        <v>4</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="46">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="16">
-        <v>5</v>
-      </c>
-      <c r="F10" s="16">
-        <v>5</v>
-      </c>
-      <c r="G10" s="16">
-        <v>5</v>
-      </c>
-      <c r="H10" s="16">
-        <v>5</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K10" s="21" t="s">
+      <c r="D10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12">
+        <v>5</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="18">
-        <v>5</v>
-      </c>
-      <c r="F11" s="18">
-        <v>5</v>
-      </c>
-      <c r="G11" s="18">
-        <v>5</v>
-      </c>
-      <c r="H11" s="18">
-        <v>5</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K11" s="20" t="s">
+      <c r="D11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>5</v>
+      </c>
+      <c r="F11" s="14">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14">
+        <v>5</v>
+      </c>
+      <c r="H11" s="14">
+        <v>5</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="46">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:11" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="16">
-        <v>5</v>
-      </c>
-      <c r="F12" s="16">
-        <v>5</v>
-      </c>
-      <c r="G12" s="16">
-        <v>5</v>
-      </c>
-      <c r="H12" s="16">
-        <v>5</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K12" s="21" t="s">
+      <c r="D12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="12">
+        <v>5</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="18">
-        <v>5</v>
-      </c>
-      <c r="F13" s="18">
-        <v>5</v>
-      </c>
-      <c r="G13" s="18">
-        <v>5</v>
-      </c>
-      <c r="H13" s="18">
-        <v>5</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K13" s="20" t="s">
+      <c r="D13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="14">
+        <v>5</v>
+      </c>
+      <c r="F13" s="14">
+        <v>5</v>
+      </c>
+      <c r="G13" s="14">
+        <v>5</v>
+      </c>
+      <c r="H13" s="14">
+        <v>5</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="46">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K13" s="16" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2282,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCD1F75-B185-45AE-BDCF-E2F85902C774}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A18" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C24" sqref="A2:K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2298,118 +2283,118 @@
     <col min="8" max="8" width="14.21875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="38.88671875" customWidth="1"/>
+    <col min="11" max="11" width="41.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="35" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="29">
+      <c r="D2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="39">
         <f>(E2+F2+G2+H2)/4</f>
         <v>4</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40">
         <f>(E3+F3+G3+H3)/4</f>
         <v>4</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2421,67 +2406,67 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="41">
         <f t="shared" ref="J4:J53" si="0">(E4+F4+G4+H4)/4</f>
         <v>4.75</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K5" s="22" t="s">
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2493,67 +2478,67 @@
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K7" s="22" t="s">
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2565,67 +2550,67 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K8" s="36" t="s">
+      <c r="J8" s="41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K9" s="22" t="s">
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2637,67 +2622,67 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="40">
         <f>(E11+F11+G11+H11)/4</f>
         <v>4.75</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2709,67 +2694,67 @@
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K12" s="36" t="s">
+      <c r="J12" s="41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K12" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K13" s="22" t="s">
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K13" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2781,67 +2766,67 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K15" s="22" t="s">
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2853,67 +2838,67 @@
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="E16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K16" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K17" s="22" t="s">
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K17" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2925,67 +2910,67 @@
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="E18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="41">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="5">
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="40">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="18" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2997,67 +2982,67 @@
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="E20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="41">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K21" s="22" t="s">
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K21" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3069,67 +3054,67 @@
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="E22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="41">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="40">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3141,67 +3126,67 @@
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="E24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="41">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K25" s="22" t="s">
+      <c r="E25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K25" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3213,67 +3198,67 @@
       <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="6" t="s">
+      <c r="E26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="5">
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="40">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3285,67 +3270,67 @@
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="E28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K29" s="22" t="s">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K29" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3357,67 +3342,67 @@
       <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="E30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" s="5">
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="40">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3429,782 +3414,782 @@
       <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="6" t="s">
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K33" s="22" t="s">
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K33" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="D34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K34" s="36" t="s">
+      <c r="K34" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="5">
+      <c r="D35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="40">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="D36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K36" s="36" t="s">
+      <c r="K36" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K37" s="22" t="s">
+      <c r="E37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K37" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+    <row r="38" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="D38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="5">
+      <c r="D39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="40">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K39" s="22" t="s">
+      <c r="K39" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J40" s="2">
+      <c r="D40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K40" s="36" t="s">
+      <c r="K40" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K41" s="22" t="s">
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K41" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="2">
+      <c r="D42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K42" s="36" t="s">
+      <c r="K42" s="30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="5">
+      <c r="D43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="40">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K43" s="22" t="s">
+      <c r="K43" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="2">
+      <c r="D44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="K44" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K45" s="22" t="s">
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K45" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="2">
+      <c r="D46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K46" s="36" t="s">
+      <c r="K46" s="30" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="5">
+      <c r="D47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="40">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K47" s="22" t="s">
+      <c r="K47" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
+    <row r="48" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="2">
+      <c r="D48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="41">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K48" s="36" t="s">
+      <c r="K48" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K49" s="22" t="s">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K49" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K50" s="36" t="s">
+      <c r="D50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K50" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K51" s="22" t="s">
+      <c r="D51" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K51" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K52" s="36" t="s">
+      <c r="D52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K52" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="I53" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="45">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K53" s="20" t="s">
+      <c r="E53" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K53" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4213,136 +4198,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F347B6F-501F-42D4-B4B4-7C3A017BE62D}">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="112.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
